--- a/raw-data/All Treatments/aroostook_raw_2023.xlsx
+++ b/raw-data/All Treatments/aroostook_raw_2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/Mowtivation/raw-data/All Treatments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C627C28-2C2E-F847-A56F-6F3FC383D6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E25AD04-76F8-1741-9D3B-4778F5EBC40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4060" yWindow="3160" windowWidth="27240" windowHeight="16440" xr2:uid="{DB8B39EF-B6BE-544E-93FD-1FDC45531FF5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>CU_B1_P405</t>
+  </si>
+  <si>
+    <t>100_seed_weight</t>
   </si>
 </sst>
 </file>
@@ -573,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BD6387-749F-BE45-BD64-D0DB4422D799}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -595,7 +598,7 @@
     <col min="13" max="13" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -635,8 +638,11 @@
       <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -676,8 +682,11 @@
       <c r="M2" s="5">
         <v>417.21</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2">
+        <v>17.119999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -717,8 +726,11 @@
       <c r="M3" s="5">
         <v>565.54</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3">
+        <v>17.475000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -758,8 +770,11 @@
       <c r="M4" s="5">
         <v>449.93</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4">
+        <v>16.752499999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -799,8 +814,11 @@
       <c r="M5" s="5">
         <v>412.59</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <v>16.145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
@@ -840,8 +858,11 @@
       <c r="M6" s="5">
         <v>473.79</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <v>17.047499999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
@@ -881,8 +902,11 @@
       <c r="M7" s="5">
         <v>484.04</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <v>17.149999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
@@ -922,8 +946,11 @@
       <c r="M8" s="5">
         <v>556.76</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8">
+        <v>16.392500000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -963,8 +990,11 @@
       <c r="M9" s="5">
         <v>497.82</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9">
+        <v>16.517500000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -1004,8 +1034,11 @@
       <c r="M10" s="5">
         <v>583.53</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10">
+        <v>17.337499999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
@@ -1045,8 +1078,11 @@
       <c r="M11" s="5">
         <v>485.35</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11">
+        <v>16.794999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>29</v>
       </c>
@@ -1086,8 +1122,11 @@
       <c r="M12" s="5">
         <v>478.85</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12">
+        <v>17.8475</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>30</v>
       </c>
@@ -1127,8 +1166,11 @@
       <c r="M13" s="5">
         <v>481.27</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <v>16.892500000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>31</v>
       </c>
@@ -1168,8 +1210,11 @@
       <c r="M14" s="5">
         <v>495.61</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <v>17.692499999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>32</v>
       </c>
@@ -1209,8 +1254,11 @@
       <c r="M15" s="5">
         <v>686.07</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <v>17.21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
@@ -1250,8 +1298,11 @@
       <c r="M16" s="5">
         <v>556.48</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <v>16.297499999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>34</v>
       </c>
@@ -1291,8 +1342,11 @@
       <c r="M17" s="5">
         <v>575.66999999999996</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <v>18.105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>35</v>
       </c>
@@ -1332,8 +1386,11 @@
       <c r="M18" s="5">
         <v>457.43</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18">
+        <v>16.692499999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
@@ -1373,8 +1430,11 @@
       <c r="M19" s="5">
         <v>549.80999999999995</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19">
+        <v>16.734999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>37</v>
       </c>
@@ -1414,8 +1474,11 @@
       <c r="M20" s="5">
         <v>487.11</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20">
+        <v>17.310000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>38</v>
       </c>
@@ -1454,6 +1517,9 @@
       </c>
       <c r="M21">
         <v>434.21</v>
+      </c>
+      <c r="N21">
+        <v>17.059999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/raw-data/All Treatments/aroostook_raw_2023.xlsx
+++ b/raw-data/All Treatments/aroostook_raw_2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/Mowtivation/raw-data/All Treatments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E25AD04-76F8-1741-9D3B-4778F5EBC40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EAC5B5-27FD-A64F-9582-D006C6FDFC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4060" yWindow="3160" windowWidth="27240" windowHeight="16440" xr2:uid="{DB8B39EF-B6BE-544E-93FD-1FDC45531FF5}"/>
   </bookViews>
@@ -80,9 +80,6 @@
     <t>CU_B1_P101</t>
   </si>
   <si>
-    <t>field x</t>
-  </si>
-  <si>
     <t>TIM</t>
   </si>
   <si>
@@ -156,6 +153,9 @@
   </si>
   <si>
     <t>100_seed_weight</t>
+  </si>
+  <si>
+    <t>field v</t>
   </si>
 </sst>
 </file>
@@ -579,7 +579,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="B2" sqref="B2:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -639,7 +639,7 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -647,13 +647,13 @@
         <v>13</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2023</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" s="5">
-        <v>2023</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
@@ -688,16 +688,16 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2023</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="5">
-        <v>2023</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="E3" s="5">
         <v>1</v>
@@ -732,16 +732,16 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2023</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="5">
-        <v>2023</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
@@ -776,16 +776,16 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2023</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2023</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -820,16 +820,16 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2023</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="5">
-        <v>2023</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
@@ -864,16 +864,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C7" s="5">
         <v>2023</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="5">
         <v>2</v>
@@ -908,16 +908,16 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C8" s="5">
         <v>2023</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="5">
         <v>2</v>
@@ -952,16 +952,16 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C9" s="5">
         <v>2023</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="5">
         <v>2</v>
@@ -996,16 +996,16 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C10" s="5">
         <v>2023</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="5">
         <v>2</v>
@@ -1040,16 +1040,16 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2023</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="C11" s="5">
-        <v>2023</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="E11" s="5">
         <v>2</v>
@@ -1084,16 +1084,16 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2023</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="C12" s="5">
-        <v>2023</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="E12" s="5">
         <v>3</v>
@@ -1128,16 +1128,16 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C13" s="5">
         <v>2023</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="5">
         <v>3</v>
@@ -1172,16 +1172,16 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5">
         <v>2023</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="5">
         <v>3</v>
@@ -1216,16 +1216,16 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C15" s="5">
         <v>2023</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="5">
         <v>3</v>
@@ -1260,16 +1260,16 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C16" s="5">
         <v>2023</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="5">
         <v>3</v>
@@ -1304,16 +1304,16 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C17" s="5">
         <v>2023</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="5">
         <v>4</v>
@@ -1348,16 +1348,16 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C18" s="5">
         <v>2023</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" s="5">
         <v>4</v>
@@ -1392,16 +1392,16 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C19" s="5">
         <v>2023</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" s="5">
         <v>4</v>
@@ -1436,16 +1436,16 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C20" s="5">
         <v>2023</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" s="5">
         <v>4</v>
@@ -1480,16 +1480,16 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2023</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="C21" s="5">
-        <v>2023</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="E21" s="5">
         <v>4</v>
